--- a/data/pca/factorExposure/factorExposure_2019-03-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1224063913613034</v>
+        <v>0.07667506911829926</v>
       </c>
       <c r="C2">
-        <v>-0.002955854151882536</v>
+        <v>-0.03511038136665404</v>
       </c>
       <c r="D2">
-        <v>-0.05131410143716175</v>
+        <v>-0.01109618131797578</v>
       </c>
       <c r="E2">
-        <v>0.1166741097633756</v>
+        <v>-0.04109763440395539</v>
       </c>
       <c r="F2">
-        <v>0.1172647310106659</v>
+        <v>-0.1408558416780951</v>
       </c>
       <c r="G2">
-        <v>0.01928773171628126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1046115373614467</v>
+      </c>
+      <c r="H2">
+        <v>0.06110636495632218</v>
+      </c>
+      <c r="I2">
+        <v>-0.03758645914131278</v>
+      </c>
+      <c r="J2">
+        <v>-0.06252912320188037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2258427580985412</v>
+        <v>0.1701119990455284</v>
       </c>
       <c r="C3">
-        <v>-0.1251796320711127</v>
+        <v>-0.08863041278995741</v>
       </c>
       <c r="D3">
-        <v>0.04092035344489798</v>
+        <v>0.03949434077943588</v>
       </c>
       <c r="E3">
-        <v>0.3303706330567154</v>
+        <v>0.007655240484236171</v>
       </c>
       <c r="F3">
-        <v>0.04005172612376989</v>
+        <v>-0.3729818626643439</v>
       </c>
       <c r="G3">
-        <v>0.126968280938136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09257873488287344</v>
+      </c>
+      <c r="H3">
+        <v>0.2814999794842318</v>
+      </c>
+      <c r="I3">
+        <v>-0.2247937495059734</v>
+      </c>
+      <c r="J3">
+        <v>-0.2100686441616804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09544936982745396</v>
+        <v>0.07517521084777432</v>
       </c>
       <c r="C4">
-        <v>-0.03910826945999951</v>
+        <v>-0.03323729266931905</v>
       </c>
       <c r="D4">
-        <v>-0.02802546580500451</v>
+        <v>0.02874922162133615</v>
       </c>
       <c r="E4">
-        <v>0.07042047681388321</v>
+        <v>-0.03795566469905316</v>
       </c>
       <c r="F4">
-        <v>0.03944032358314498</v>
+        <v>-0.08080046009841919</v>
       </c>
       <c r="G4">
-        <v>0.02925818789115045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04701763352317104</v>
+      </c>
+      <c r="H4">
+        <v>0.02373223393044478</v>
+      </c>
+      <c r="I4">
+        <v>-0.04141334994344097</v>
+      </c>
+      <c r="J4">
+        <v>-0.0555557809376248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01755344971542684</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.007915913318384527</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009884280919047816</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005915845123169388</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003633612551647391</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02108165495618603</v>
+      </c>
+      <c r="H6">
+        <v>-0.001148143744901099</v>
+      </c>
+      <c r="I6">
+        <v>0.01425049457066632</v>
+      </c>
+      <c r="J6">
+        <v>-0.003474368444729626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04293543211614814</v>
+        <v>0.035150330254915</v>
       </c>
       <c r="C7">
-        <v>-0.01015768849904676</v>
+        <v>-0.001462630395424634</v>
       </c>
       <c r="D7">
-        <v>-0.03477837446006577</v>
+        <v>0.03963221049345503</v>
       </c>
       <c r="E7">
-        <v>0.07461605124631826</v>
+        <v>-0.02917251552660886</v>
       </c>
       <c r="F7">
-        <v>-0.05216047599794768</v>
+        <v>-0.05551257803642789</v>
       </c>
       <c r="G7">
-        <v>-0.008716817498667758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.007634017041307659</v>
+      </c>
+      <c r="H7">
+        <v>0.04518741806695593</v>
+      </c>
+      <c r="I7">
+        <v>-0.006675379572307742</v>
+      </c>
+      <c r="J7">
+        <v>-0.05500631353499091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04429908953335043</v>
+        <v>0.03080259027166671</v>
       </c>
       <c r="C8">
-        <v>-0.04987706080771039</v>
+        <v>-0.03968765898571531</v>
       </c>
       <c r="D8">
-        <v>-0.004768626924666518</v>
+        <v>0.03168111106791454</v>
       </c>
       <c r="E8">
-        <v>0.06950837624769515</v>
+        <v>-0.01811931351353812</v>
       </c>
       <c r="F8">
-        <v>0.01103877154159094</v>
+        <v>-0.07266056165039565</v>
       </c>
       <c r="G8">
-        <v>0.01523496203200017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02144655404732258</v>
+      </c>
+      <c r="H8">
+        <v>0.0446973469137608</v>
+      </c>
+      <c r="I8">
+        <v>-0.04326237641629892</v>
+      </c>
+      <c r="J8">
+        <v>-0.05612586140878942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08407433318283902</v>
+        <v>0.06208373642564109</v>
       </c>
       <c r="C9">
-        <v>-0.03648515156860058</v>
+        <v>-0.02933265173728926</v>
       </c>
       <c r="D9">
-        <v>-0.03522034282456721</v>
+        <v>0.03245883200956548</v>
       </c>
       <c r="E9">
-        <v>0.05662166222670467</v>
+        <v>-0.03357708781301005</v>
       </c>
       <c r="F9">
-        <v>0.02656697668586106</v>
+        <v>-0.08182276365782383</v>
       </c>
       <c r="G9">
-        <v>0.04571990866225065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04325216387748652</v>
+      </c>
+      <c r="H9">
+        <v>0.02140820800685987</v>
+      </c>
+      <c r="I9">
+        <v>-0.01993931179218681</v>
+      </c>
+      <c r="J9">
+        <v>-0.03631754986150501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01098317931471861</v>
+        <v>0.02559568567213104</v>
       </c>
       <c r="C10">
-        <v>0.1606150719248751</v>
+        <v>0.1384238736987446</v>
       </c>
       <c r="D10">
-        <v>0.02979447326090205</v>
+        <v>-0.07338868502964521</v>
       </c>
       <c r="E10">
-        <v>0.06927377143004503</v>
+        <v>0.02623452576096687</v>
       </c>
       <c r="F10">
-        <v>0.01665970559663147</v>
+        <v>-0.06593058262825242</v>
       </c>
       <c r="G10">
-        <v>-0.01930646025562196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02199107163788373</v>
+      </c>
+      <c r="H10">
+        <v>0.001932110648027756</v>
+      </c>
+      <c r="I10">
+        <v>-0.1064126612850665</v>
+      </c>
+      <c r="J10">
+        <v>0.0206166720098744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05869942671258593</v>
+        <v>0.05043720139743352</v>
       </c>
       <c r="C11">
-        <v>-0.01153116634244034</v>
+        <v>-0.02727014872310959</v>
       </c>
       <c r="D11">
-        <v>0.006179753266527171</v>
+        <v>0.003765416635176675</v>
       </c>
       <c r="E11">
-        <v>0.04144316037930709</v>
+        <v>-0.008532002598867557</v>
       </c>
       <c r="F11">
-        <v>0.005939189326233689</v>
+        <v>-0.04038280748457788</v>
       </c>
       <c r="G11">
-        <v>-0.02211643420264335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007009132204549267</v>
+      </c>
+      <c r="H11">
+        <v>0.0007602214983618234</v>
+      </c>
+      <c r="I11">
+        <v>0.003626658368293083</v>
+      </c>
+      <c r="J11">
+        <v>-0.04639506836354461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04417520029395059</v>
+        <v>0.04766833222128782</v>
       </c>
       <c r="C12">
-        <v>-0.01664673214007107</v>
+        <v>-0.01998431578709355</v>
       </c>
       <c r="D12">
-        <v>0.002884465838577253</v>
+        <v>0.0125354062824431</v>
       </c>
       <c r="E12">
-        <v>0.02989573820498212</v>
+        <v>-0.01132044002191399</v>
       </c>
       <c r="F12">
-        <v>-0.005002799465418674</v>
+        <v>-0.01552201581723744</v>
       </c>
       <c r="G12">
-        <v>0.0004894562377633101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002272783182590433</v>
+      </c>
+      <c r="H12">
+        <v>0.003916700717681952</v>
+      </c>
+      <c r="I12">
+        <v>0.002580505210529224</v>
+      </c>
+      <c r="J12">
+        <v>-0.03184317078364969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06542613230409457</v>
+        <v>0.04259434760203465</v>
       </c>
       <c r="C13">
-        <v>-0.02348266455104587</v>
+        <v>-0.02927351320308629</v>
       </c>
       <c r="D13">
-        <v>0.006952883534071282</v>
+        <v>-0.004397017629696904</v>
       </c>
       <c r="E13">
-        <v>0.10912264707323</v>
+        <v>-0.008906804865673903</v>
       </c>
       <c r="F13">
-        <v>0.01929132747631266</v>
+        <v>-0.1063592381858829</v>
       </c>
       <c r="G13">
-        <v>-0.001802719409197478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02145981426234168</v>
+      </c>
+      <c r="H13">
+        <v>0.04598849550750123</v>
+      </c>
+      <c r="I13">
+        <v>-0.01530889337795382</v>
+      </c>
+      <c r="J13">
+        <v>-0.05659010229481187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03388162857776234</v>
+        <v>0.02836120167238558</v>
       </c>
       <c r="C14">
-        <v>-0.0160503336213115</v>
+        <v>-0.0146550408282559</v>
       </c>
       <c r="D14">
-        <v>-0.02630669649660772</v>
+        <v>0.01163665583306265</v>
       </c>
       <c r="E14">
-        <v>0.02774435496095872</v>
+        <v>-0.02539090493268823</v>
       </c>
       <c r="F14">
-        <v>0.01147252366945915</v>
+        <v>-0.04084612539839393</v>
       </c>
       <c r="G14">
-        <v>-0.03624091289866818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02829772501840777</v>
+      </c>
+      <c r="H14">
+        <v>0.05171336543556149</v>
+      </c>
+      <c r="I14">
+        <v>-0.008620862679043041</v>
+      </c>
+      <c r="J14">
+        <v>-0.01425418159588675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04709604343756826</v>
+        <v>0.04474832246315677</v>
       </c>
       <c r="C16">
-        <v>-0.02724362577782666</v>
+        <v>-0.03212487740536018</v>
       </c>
       <c r="D16">
-        <v>0.009708145890398829</v>
+        <v>0.01265414243079678</v>
       </c>
       <c r="E16">
-        <v>0.03380118955289751</v>
+        <v>-0.005355810855064786</v>
       </c>
       <c r="F16">
-        <v>-0.006914957720280696</v>
+        <v>-0.03408388319028757</v>
       </c>
       <c r="G16">
-        <v>-0.008412875256892544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005381547101857119</v>
+      </c>
+      <c r="H16">
+        <v>0.008046141424501687</v>
+      </c>
+      <c r="I16">
+        <v>0.003023306738118034</v>
+      </c>
+      <c r="J16">
+        <v>-0.03979500301217649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05380175028815161</v>
+        <v>0.04828620495187072</v>
       </c>
       <c r="C19">
-        <v>-0.03465921220223946</v>
+        <v>-0.03945057031680136</v>
       </c>
       <c r="D19">
-        <v>0.005088056383608233</v>
+        <v>0.01562304376744777</v>
       </c>
       <c r="E19">
-        <v>0.07570294572035394</v>
+        <v>-0.01803117304248916</v>
       </c>
       <c r="F19">
-        <v>-0.01713966791020194</v>
+        <v>-0.08101087710774238</v>
       </c>
       <c r="G19">
-        <v>-0.0247482865725509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.009225791055755699</v>
+      </c>
+      <c r="H19">
+        <v>0.08111763459830069</v>
+      </c>
+      <c r="I19">
+        <v>-0.04181002629215996</v>
+      </c>
+      <c r="J19">
+        <v>-0.04413491742674913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03791903011184423</v>
+        <v>0.01938638358328066</v>
       </c>
       <c r="C20">
-        <v>-0.0406129651119746</v>
+        <v>-0.02527140107926647</v>
       </c>
       <c r="D20">
-        <v>-0.01474398198223835</v>
+        <v>0.01851011667846524</v>
       </c>
       <c r="E20">
-        <v>0.06676171498915588</v>
+        <v>-0.01914844942610998</v>
       </c>
       <c r="F20">
-        <v>-0.009452118515608236</v>
+        <v>-0.06719954111868395</v>
       </c>
       <c r="G20">
-        <v>-0.01154484788296557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01363119476726166</v>
+      </c>
+      <c r="H20">
+        <v>0.06922170163489562</v>
+      </c>
+      <c r="I20">
+        <v>-0.02846541170967406</v>
+      </c>
+      <c r="J20">
+        <v>-0.07497074191168493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.0409463620156915</v>
+        <v>0.02645966136167995</v>
       </c>
       <c r="C21">
-        <v>-0.03324159430088133</v>
+        <v>-0.02491894200138826</v>
       </c>
       <c r="D21">
-        <v>-0.006746383052792105</v>
+        <v>0.02726697403374379</v>
       </c>
       <c r="E21">
-        <v>0.09276919653124548</v>
+        <v>-0.008614813586964885</v>
       </c>
       <c r="F21">
-        <v>0.05183263282220848</v>
+        <v>-0.07832055261654081</v>
       </c>
       <c r="G21">
-        <v>-0.02386652485730927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03524542831475892</v>
+      </c>
+      <c r="H21">
+        <v>0.02211573668725004</v>
+      </c>
+      <c r="I21">
+        <v>0.004451305646508069</v>
+      </c>
+      <c r="J21">
+        <v>-0.03325085278232318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05004383183037742</v>
+        <v>0.04390059004055444</v>
       </c>
       <c r="C24">
-        <v>-0.01826232626384084</v>
+        <v>-0.02086324239639465</v>
       </c>
       <c r="D24">
-        <v>0.002739616220653154</v>
+        <v>0.00740294712556368</v>
       </c>
       <c r="E24">
-        <v>0.04452538313257097</v>
+        <v>-0.01025092778947921</v>
       </c>
       <c r="F24">
-        <v>-0.004700170965809868</v>
+        <v>-0.0412663696590343</v>
       </c>
       <c r="G24">
-        <v>-0.0009046702586925859</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004440299956844503</v>
+      </c>
+      <c r="H24">
+        <v>0.007424003424265292</v>
+      </c>
+      <c r="I24">
+        <v>-0.0007983413791517728</v>
+      </c>
+      <c r="J24">
+        <v>-0.04474608467492455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05217082859281841</v>
+        <v>0.04657576599238958</v>
       </c>
       <c r="C25">
-        <v>-0.007939108224766048</v>
+        <v>-0.02044931801194211</v>
       </c>
       <c r="D25">
-        <v>0.003945055859441912</v>
+        <v>0.005869007461636625</v>
       </c>
       <c r="E25">
-        <v>0.03962183517327204</v>
+        <v>-0.008734036606054421</v>
       </c>
       <c r="F25">
-        <v>0.00683319616138781</v>
+        <v>-0.04442435914007817</v>
       </c>
       <c r="G25">
-        <v>-0.009866962559098587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004517702304653479</v>
+      </c>
+      <c r="H25">
+        <v>-0.001097455987705616</v>
+      </c>
+      <c r="I25">
+        <v>0.005882682325029752</v>
+      </c>
+      <c r="J25">
+        <v>-0.03903107179586823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01634540114072369</v>
+        <v>0.01620584412512213</v>
       </c>
       <c r="C26">
-        <v>-0.02753726600924287</v>
+        <v>-0.02373869140938962</v>
       </c>
       <c r="D26">
-        <v>-0.002315963511637779</v>
+        <v>0.006235756797295718</v>
       </c>
       <c r="E26">
-        <v>0.03496177674769085</v>
+        <v>-0.001293292653758084</v>
       </c>
       <c r="F26">
-        <v>0.02210125617449932</v>
+        <v>-0.04790780832134893</v>
       </c>
       <c r="G26">
-        <v>-0.02756324641418577</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02115977796577486</v>
+      </c>
+      <c r="H26">
+        <v>0.03168430067192515</v>
+      </c>
+      <c r="I26">
+        <v>-0.0002822864947751362</v>
+      </c>
+      <c r="J26">
+        <v>-0.03949252245618771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1161617470863812</v>
+        <v>0.07824678746037507</v>
       </c>
       <c r="C27">
-        <v>-0.02978262850135912</v>
+        <v>-0.02507143778775951</v>
       </c>
       <c r="D27">
-        <v>-0.02334246792704273</v>
+        <v>0.01416360916978719</v>
       </c>
       <c r="E27">
-        <v>0.09539728183174205</v>
+        <v>-0.03403423480160606</v>
       </c>
       <c r="F27">
-        <v>0.01164033083870728</v>
+        <v>-0.0681216884912182</v>
       </c>
       <c r="G27">
-        <v>0.009123535236987808</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01701188542143807</v>
+      </c>
+      <c r="H27">
+        <v>0.01330265474809381</v>
+      </c>
+      <c r="I27">
+        <v>-0.02920516908306545</v>
+      </c>
+      <c r="J27">
+        <v>-0.03946112348445762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.009173096704937413</v>
+        <v>0.04130302427411816</v>
       </c>
       <c r="C28">
-        <v>0.2419247705749525</v>
+        <v>0.2140140834891433</v>
       </c>
       <c r="D28">
-        <v>0.02887601200736465</v>
+        <v>-0.1017232740280607</v>
       </c>
       <c r="E28">
-        <v>0.04799006174466824</v>
+        <v>0.04244309395061016</v>
       </c>
       <c r="F28">
-        <v>0.02995126476830455</v>
+        <v>-0.05441438825605579</v>
       </c>
       <c r="G28">
-        <v>-0.002953579099283268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.025693298104177</v>
+      </c>
+      <c r="H28">
+        <v>-0.0007238165244209146</v>
+      </c>
+      <c r="I28">
+        <v>-0.1522650606802771</v>
+      </c>
+      <c r="J28">
+        <v>0.02184068610186529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02248306949518624</v>
+        <v>0.02266279380536128</v>
       </c>
       <c r="C29">
-        <v>-0.02160175792647757</v>
+        <v>-0.01434449592360779</v>
       </c>
       <c r="D29">
-        <v>-0.03004170809442102</v>
+        <v>0.01702511631579418</v>
       </c>
       <c r="E29">
-        <v>0.02807101986982765</v>
+        <v>-0.02660181656301235</v>
       </c>
       <c r="F29">
-        <v>0.01589672019901787</v>
+        <v>-0.03532054058540987</v>
       </c>
       <c r="G29">
-        <v>-0.02736118900358379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0292154477330081</v>
+      </c>
+      <c r="H29">
+        <v>0.04944933219191595</v>
+      </c>
+      <c r="I29">
+        <v>-0.002181397858876009</v>
+      </c>
+      <c r="J29">
+        <v>-0.01046865376996285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1094385459641858</v>
+        <v>0.09181070233687622</v>
       </c>
       <c r="C30">
-        <v>-0.01688303431731386</v>
+        <v>-0.05708028444335701</v>
       </c>
       <c r="D30">
-        <v>-0.0248533348677639</v>
+        <v>-0.01792767366697923</v>
       </c>
       <c r="E30">
-        <v>0.1084584885362955</v>
+        <v>-0.0310714444798368</v>
       </c>
       <c r="F30">
-        <v>0.002273115006737855</v>
+        <v>-0.1026575818420503</v>
       </c>
       <c r="G30">
-        <v>-0.03881449922824627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01460228681751595</v>
+      </c>
+      <c r="H30">
+        <v>0.02144894532868501</v>
+      </c>
+      <c r="I30">
+        <v>0.01072617454147359</v>
+      </c>
+      <c r="J30">
+        <v>-0.03347739997629166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06357283638173741</v>
+        <v>0.06374003652396745</v>
       </c>
       <c r="C31">
-        <v>-0.02026494465480793</v>
+        <v>-0.02442290547909378</v>
       </c>
       <c r="D31">
-        <v>-0.01896820731056619</v>
+        <v>-0.0024270494703143</v>
       </c>
       <c r="E31">
-        <v>-0.01917310582768583</v>
+        <v>-0.02306898217628667</v>
       </c>
       <c r="F31">
-        <v>0.009134319498185627</v>
+        <v>-0.001826278847202442</v>
       </c>
       <c r="G31">
-        <v>-0.05961017888894316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04031291314986406</v>
+      </c>
+      <c r="H31">
+        <v>0.03157158078832636</v>
+      </c>
+      <c r="I31">
+        <v>-0.01219494471926351</v>
+      </c>
+      <c r="J31">
+        <v>-0.01473223524321715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06730056300159329</v>
+        <v>0.04502098568127683</v>
       </c>
       <c r="C32">
-        <v>-0.03134442935711818</v>
+        <v>-0.03764248202030798</v>
       </c>
       <c r="D32">
-        <v>-0.009421647124823927</v>
+        <v>0.03220680341582999</v>
       </c>
       <c r="E32">
-        <v>0.1074440114631164</v>
+        <v>-0.02819994258259697</v>
       </c>
       <c r="F32">
-        <v>-0.007320629053031357</v>
+        <v>-0.08733625513494402</v>
       </c>
       <c r="G32">
-        <v>-0.02908620887048388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01293857556927414</v>
+      </c>
+      <c r="H32">
+        <v>0.04013746124758896</v>
+      </c>
+      <c r="I32">
+        <v>-0.02779803490611357</v>
+      </c>
+      <c r="J32">
+        <v>-0.04437044454296572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06813171491176763</v>
+        <v>0.05844312030518297</v>
       </c>
       <c r="C33">
-        <v>-0.04151125116405269</v>
+        <v>-0.05333116631600699</v>
       </c>
       <c r="D33">
-        <v>-0.01034449745325632</v>
+        <v>0.002456205085619383</v>
       </c>
       <c r="E33">
-        <v>0.07126302980235855</v>
+        <v>-0.01042060238265892</v>
       </c>
       <c r="F33">
-        <v>0.0505278462087997</v>
+        <v>-0.07867451108996354</v>
       </c>
       <c r="G33">
-        <v>-0.01689911130770034</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03625226072494175</v>
+      </c>
+      <c r="H33">
+        <v>0.03663256583880756</v>
+      </c>
+      <c r="I33">
+        <v>0.004049828405814039</v>
+      </c>
+      <c r="J33">
+        <v>-0.05401820447382952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04604060256044445</v>
+        <v>0.04598915100377456</v>
       </c>
       <c r="C34">
-        <v>-0.01815795830563451</v>
+        <v>-0.02613304986233368</v>
       </c>
       <c r="D34">
-        <v>0.000540907804122913</v>
+        <v>0.0150046215032889</v>
       </c>
       <c r="E34">
-        <v>0.0254182848620449</v>
+        <v>-0.01531020602546794</v>
       </c>
       <c r="F34">
-        <v>-0.005319289387040666</v>
+        <v>-0.03139834597125359</v>
       </c>
       <c r="G34">
-        <v>-0.01074616430726445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0002025893891279388</v>
+      </c>
+      <c r="H34">
+        <v>0.011663935352703</v>
+      </c>
+      <c r="I34">
+        <v>0.003366524511111947</v>
+      </c>
+      <c r="J34">
+        <v>-0.03517416101644162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01293001981088571</v>
+        <v>0.01642615380186723</v>
       </c>
       <c r="C36">
-        <v>0.004349229200943988</v>
+        <v>0.0002748186632245423</v>
       </c>
       <c r="D36">
-        <v>-0.006575601715988633</v>
+        <v>0.004618432324262857</v>
       </c>
       <c r="E36">
-        <v>0.02095588684696617</v>
+        <v>-0.009952483475830736</v>
       </c>
       <c r="F36">
-        <v>0.008868799219356153</v>
+        <v>-0.02805826907850932</v>
       </c>
       <c r="G36">
-        <v>-0.02303449493094582</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02343405277197844</v>
+      </c>
+      <c r="H36">
+        <v>0.02766158441991868</v>
+      </c>
+      <c r="I36">
+        <v>0.004444010377544527</v>
+      </c>
+      <c r="J36">
+        <v>-0.004923464247918646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05769206434832897</v>
+        <v>0.03648475968273759</v>
       </c>
       <c r="C38">
-        <v>-0.01384506410342631</v>
+        <v>-0.01220866446083132</v>
       </c>
       <c r="D38">
-        <v>-0.02656845460738904</v>
+        <v>0.007937877657393877</v>
       </c>
       <c r="E38">
-        <v>0.02801967401219017</v>
+        <v>-0.01328496037980379</v>
       </c>
       <c r="F38">
-        <v>0.001157992188572195</v>
+        <v>-0.04936219042024345</v>
       </c>
       <c r="G38">
-        <v>0.0215671317046055</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02824647732917294</v>
+      </c>
+      <c r="H38">
+        <v>0.01300235560117711</v>
+      </c>
+      <c r="I38">
+        <v>0.01267795943933697</v>
+      </c>
+      <c r="J38">
+        <v>-0.005823086647618721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07317600647751837</v>
+        <v>0.05808739146346239</v>
       </c>
       <c r="C39">
-        <v>-0.01550135105864987</v>
+        <v>-0.03849782702490531</v>
       </c>
       <c r="D39">
-        <v>-0.003334255503898497</v>
+        <v>0.01033346678027906</v>
       </c>
       <c r="E39">
-        <v>0.03972895352962825</v>
+        <v>-0.01704206245731009</v>
       </c>
       <c r="F39">
-        <v>0.01730451838375282</v>
+        <v>-0.05496853271536628</v>
       </c>
       <c r="G39">
-        <v>-0.01076751928546708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01688362376106231</v>
+      </c>
+      <c r="H39">
+        <v>0.001050242753952716</v>
+      </c>
+      <c r="I39">
+        <v>0.02477562727320125</v>
+      </c>
+      <c r="J39">
+        <v>-0.05071320269211691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07613708088698057</v>
+        <v>0.05766521635365866</v>
       </c>
       <c r="C40">
-        <v>-0.0385434983138608</v>
+        <v>-0.04509647880019517</v>
       </c>
       <c r="D40">
-        <v>-0.007741205202827304</v>
+        <v>-0.003912846914787387</v>
       </c>
       <c r="E40">
-        <v>0.103120203368872</v>
+        <v>-0.02363450500049927</v>
       </c>
       <c r="F40">
-        <v>0.03308288422307685</v>
+        <v>-0.09517263017101331</v>
       </c>
       <c r="G40">
-        <v>0.03476535272771555</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0225939109319984</v>
+      </c>
+      <c r="H40">
+        <v>0.05333632655588367</v>
+      </c>
+      <c r="I40">
+        <v>-0.02928706932743238</v>
+      </c>
+      <c r="J40">
+        <v>-0.1132888042669618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.002969602381375287</v>
+        <v>0.003738640827751323</v>
       </c>
       <c r="C41">
-        <v>-0.01615724410434671</v>
+        <v>-0.01119433158339094</v>
       </c>
       <c r="D41">
-        <v>-0.02476610198101687</v>
+        <v>0.005825281966218473</v>
       </c>
       <c r="E41">
-        <v>0.01204973064501564</v>
+        <v>-0.008305696720518127</v>
       </c>
       <c r="F41">
-        <v>0.03187751431721486</v>
+        <v>-0.01460311692297218</v>
       </c>
       <c r="G41">
-        <v>-0.03189114610837589</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03616166581876699</v>
+      </c>
+      <c r="H41">
+        <v>0.03200950871753899</v>
+      </c>
+      <c r="I41">
+        <v>-0.02201575699520155</v>
+      </c>
+      <c r="J41">
+        <v>-0.008141611375211169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1496490428644286</v>
+        <v>0.2217292467104366</v>
       </c>
       <c r="C42">
-        <v>-0.2157135535900001</v>
+        <v>-0.2150660614533469</v>
       </c>
       <c r="D42">
-        <v>0.9247738082042452</v>
+        <v>0.03440774831901239</v>
       </c>
       <c r="E42">
-        <v>-0.0975534778484545</v>
+        <v>0.9237336994974236</v>
       </c>
       <c r="F42">
-        <v>-0.03916759181138566</v>
+        <v>0.1438773512188936</v>
       </c>
       <c r="G42">
-        <v>-0.08787518261455367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.004645295646537654</v>
+      </c>
+      <c r="H42">
+        <v>-0.0008712284005397722</v>
+      </c>
+      <c r="I42">
+        <v>-0.0511260587458774</v>
+      </c>
+      <c r="J42">
+        <v>-0.02277344334250381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.00478567178665542</v>
+        <v>0.006001677306675099</v>
       </c>
       <c r="C43">
-        <v>-0.01846834352318671</v>
+        <v>-0.01450515897543825</v>
       </c>
       <c r="D43">
-        <v>-0.01630791353715814</v>
+        <v>0.004412247248463107</v>
       </c>
       <c r="E43">
-        <v>0.03647841075037393</v>
+        <v>-0.008604303307192853</v>
       </c>
       <c r="F43">
-        <v>0.009589596829478943</v>
+        <v>-0.029412450014237</v>
       </c>
       <c r="G43">
-        <v>-0.02264386374014078</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02069733356776486</v>
+      </c>
+      <c r="H43">
+        <v>0.03114483655780227</v>
+      </c>
+      <c r="I43">
+        <v>-0.0156128697982149</v>
+      </c>
+      <c r="J43">
+        <v>-0.01858627223723685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04094166770149348</v>
+        <v>0.02929876573663636</v>
       </c>
       <c r="C44">
-        <v>-0.04904166670848219</v>
+        <v>-0.03847503564612652</v>
       </c>
       <c r="D44">
-        <v>-0.01503403387995593</v>
+        <v>0.01920835426587612</v>
       </c>
       <c r="E44">
-        <v>0.1201973711848592</v>
+        <v>-0.01061014642080453</v>
       </c>
       <c r="F44">
-        <v>0.09516961994110498</v>
+        <v>-0.1221224661120736</v>
       </c>
       <c r="G44">
-        <v>-0.03253562524688867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0603629143515396</v>
+      </c>
+      <c r="H44">
+        <v>0.1028170052582597</v>
+      </c>
+      <c r="I44">
+        <v>-0.0229836069601159</v>
+      </c>
+      <c r="J44">
+        <v>-0.02586790031686372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02733403446849062</v>
+        <v>0.02609946869772235</v>
       </c>
       <c r="C46">
-        <v>-0.02172130740990735</v>
+        <v>-0.03307650214967327</v>
       </c>
       <c r="D46">
-        <v>-0.03040576517625608</v>
+        <v>0.0123281200146701</v>
       </c>
       <c r="E46">
-        <v>0.02615591961814839</v>
+        <v>-0.02872736536947154</v>
       </c>
       <c r="F46">
-        <v>0.02601850826295929</v>
+        <v>-0.04736239495551545</v>
       </c>
       <c r="G46">
-        <v>-0.03422530176181526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02608608542543672</v>
+      </c>
+      <c r="H46">
+        <v>0.05127424235117892</v>
+      </c>
+      <c r="I46">
+        <v>-0.002098266257947703</v>
+      </c>
+      <c r="J46">
+        <v>-0.02172096644745185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08785411470803436</v>
+        <v>0.0922385197914453</v>
       </c>
       <c r="C47">
-        <v>-0.01342409684772261</v>
+        <v>-0.01737724446653819</v>
       </c>
       <c r="D47">
-        <v>-0.0175430109619727</v>
+        <v>-0.0005583638439413584</v>
       </c>
       <c r="E47">
-        <v>-0.0230306216918926</v>
+        <v>-0.02586579282963854</v>
       </c>
       <c r="F47">
-        <v>0.008237899074070871</v>
+        <v>0.01180081933749403</v>
       </c>
       <c r="G47">
-        <v>-0.03235935567928748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04143894217429508</v>
+      </c>
+      <c r="H47">
+        <v>0.05588821093446395</v>
+      </c>
+      <c r="I47">
+        <v>-0.01866688466480225</v>
+      </c>
+      <c r="J47">
+        <v>-0.02401194208519738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01781353540596062</v>
+        <v>0.01935883121589304</v>
       </c>
       <c r="C48">
-        <v>-0.02199569403153324</v>
+        <v>-0.01753379332862251</v>
       </c>
       <c r="D48">
-        <v>-0.01455082153261247</v>
+        <v>0.009511550343544874</v>
       </c>
       <c r="E48">
-        <v>0.02678119174854567</v>
+        <v>-0.01361284200272698</v>
       </c>
       <c r="F48">
-        <v>0.01145885544747804</v>
+        <v>-0.03061779318280976</v>
       </c>
       <c r="G48">
-        <v>-0.01133262588715811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01521289012490429</v>
+      </c>
+      <c r="H48">
+        <v>0.02095023797032891</v>
+      </c>
+      <c r="I48">
+        <v>-0.01310883151856527</v>
+      </c>
+      <c r="J48">
+        <v>-0.01319527561325986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08988852678067753</v>
+        <v>0.09033149884446599</v>
       </c>
       <c r="C50">
-        <v>-0.04175284891263895</v>
+        <v>-0.03146580455933726</v>
       </c>
       <c r="D50">
-        <v>-0.02725652020992648</v>
+        <v>0.02400048857388274</v>
       </c>
       <c r="E50">
-        <v>-0.01667566489548375</v>
+        <v>-0.0245915405279232</v>
       </c>
       <c r="F50">
-        <v>-0.005669278544644422</v>
+        <v>0.004683300149215691</v>
       </c>
       <c r="G50">
-        <v>-0.04580290503978915</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0003941416943090668</v>
+      </c>
+      <c r="H50">
+        <v>0.03861345771779738</v>
+      </c>
+      <c r="I50">
+        <v>0.006540763169845556</v>
+      </c>
+      <c r="J50">
+        <v>-0.01142409022318718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.05811267466249962</v>
+        <v>0.03976937172127859</v>
       </c>
       <c r="C51">
-        <v>0.02312142503439982</v>
+        <v>0.0007071126562340332</v>
       </c>
       <c r="D51">
-        <v>0.007006897043665492</v>
+        <v>-0.01557651216156164</v>
       </c>
       <c r="E51">
-        <v>0.07606548864077911</v>
+        <v>-0.008363913378805059</v>
       </c>
       <c r="F51">
-        <v>0.04938305631605087</v>
+        <v>-0.09946089195558651</v>
       </c>
       <c r="G51">
-        <v>-0.07459021464539803</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05026532445515088</v>
+      </c>
+      <c r="H51">
+        <v>0.05103297264444353</v>
+      </c>
+      <c r="I51">
+        <v>-0.01790468226172797</v>
+      </c>
+      <c r="J51">
+        <v>-0.03905522072810146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1445370765755321</v>
+        <v>0.1271231467762794</v>
       </c>
       <c r="C53">
-        <v>-0.0133329985421645</v>
+        <v>-0.03436139280539625</v>
       </c>
       <c r="D53">
-        <v>-0.05157996179246691</v>
+        <v>0.005432737760969223</v>
       </c>
       <c r="E53">
-        <v>-0.04969305594070298</v>
+        <v>-0.050088496439062</v>
       </c>
       <c r="F53">
-        <v>-0.01019630974780608</v>
+        <v>0.04067398255480664</v>
       </c>
       <c r="G53">
-        <v>-0.03954352194678619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02275686408708529</v>
+      </c>
+      <c r="H53">
+        <v>-0.001252900813176645</v>
+      </c>
+      <c r="I53">
+        <v>-0.0385546566831769</v>
+      </c>
+      <c r="J53">
+        <v>-0.0292135144503197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02711748378707443</v>
+        <v>0.02575892402794461</v>
       </c>
       <c r="C54">
-        <v>-0.003979026715003643</v>
+        <v>-0.0006113269063249779</v>
       </c>
       <c r="D54">
-        <v>-0.02602081752343884</v>
+        <v>0.005040994652274641</v>
       </c>
       <c r="E54">
-        <v>0.03111176202212066</v>
+        <v>-0.02675707264638989</v>
       </c>
       <c r="F54">
-        <v>0.050647729449853</v>
+        <v>-0.03642849205219681</v>
       </c>
       <c r="G54">
-        <v>-0.01930909826661697</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05146978715840348</v>
+      </c>
+      <c r="H54">
+        <v>0.04248164144594883</v>
+      </c>
+      <c r="I54">
+        <v>-0.0237317042057165</v>
+      </c>
+      <c r="J54">
+        <v>0.008363773942882522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09859698775127657</v>
+        <v>0.1013959578107445</v>
       </c>
       <c r="C55">
-        <v>0.0005456948481564034</v>
+        <v>-0.01498227674902031</v>
       </c>
       <c r="D55">
-        <v>-0.03966261261679003</v>
+        <v>0.01658959772824017</v>
       </c>
       <c r="E55">
-        <v>-0.008455410454528753</v>
+        <v>-0.03264253553538099</v>
       </c>
       <c r="F55">
-        <v>-0.03422553972092689</v>
+        <v>0.02878985202578573</v>
       </c>
       <c r="G55">
-        <v>0.006463381898486406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005636311912816561</v>
+      </c>
+      <c r="H55">
+        <v>0.01347890169766694</v>
+      </c>
+      <c r="I55">
+        <v>-0.01953288352573835</v>
+      </c>
+      <c r="J55">
+        <v>-0.02824281766283687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1751417916687137</v>
+        <v>0.167879129232976</v>
       </c>
       <c r="C56">
-        <v>0.008277587891177144</v>
+        <v>-0.01376206423273948</v>
       </c>
       <c r="D56">
-        <v>-0.09299261988024232</v>
+        <v>0.003942262004904722</v>
       </c>
       <c r="E56">
-        <v>-0.09669773288420952</v>
+        <v>-0.0855363123697102</v>
       </c>
       <c r="F56">
-        <v>-0.08607876482806374</v>
+        <v>0.0856626889011802</v>
       </c>
       <c r="G56">
-        <v>-0.007932840354205143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02729360019303368</v>
+      </c>
+      <c r="H56">
+        <v>-0.04357072997012174</v>
+      </c>
+      <c r="I56">
+        <v>-0.0342823240466387</v>
+      </c>
+      <c r="J56">
+        <v>-0.03784015776611943</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09182928178098165</v>
+        <v>0.06838703527818461</v>
       </c>
       <c r="C57">
-        <v>-0.03023259929632988</v>
+        <v>-0.03817657989520309</v>
       </c>
       <c r="D57">
-        <v>-0.03268016288332643</v>
+        <v>-0.003429759506209326</v>
       </c>
       <c r="E57">
-        <v>0.03665905815220327</v>
+        <v>-0.01228754377292381</v>
       </c>
       <c r="F57">
-        <v>0.0316949917376412</v>
+        <v>-0.06238777787840036</v>
       </c>
       <c r="G57">
-        <v>-0.04486083603725959</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02629382271814817</v>
+      </c>
+      <c r="H57">
+        <v>0.02788584643248559</v>
+      </c>
+      <c r="I57">
+        <v>0.007285692453012394</v>
+      </c>
+      <c r="J57">
+        <v>-0.03928674798319956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1818499603507846</v>
+        <v>0.2065016855844952</v>
       </c>
       <c r="C58">
-        <v>-0.02409945711885599</v>
+        <v>-0.1226989491033693</v>
       </c>
       <c r="D58">
-        <v>0.0267787633306829</v>
+        <v>-0.0461714384605666</v>
       </c>
       <c r="E58">
-        <v>0.1173166025462546</v>
+        <v>0.007796022988324836</v>
       </c>
       <c r="F58">
-        <v>-0.06738454756042234</v>
+        <v>-0.2378129915095893</v>
       </c>
       <c r="G58">
-        <v>-0.03343906278353957</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1722162321199828</v>
+      </c>
+      <c r="H58">
+        <v>0.3613735321843069</v>
+      </c>
+      <c r="I58">
+        <v>0.2613086914057423</v>
+      </c>
+      <c r="J58">
+        <v>0.7311120896215574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01767295526575216</v>
+        <v>0.04104576643456911</v>
       </c>
       <c r="C59">
-        <v>0.2001899949827875</v>
+        <v>0.1716066846440462</v>
       </c>
       <c r="D59">
-        <v>0.001604403061309769</v>
+        <v>-0.1023922947381303</v>
       </c>
       <c r="E59">
-        <v>0.06154035026940156</v>
+        <v>0.007316748852895824</v>
       </c>
       <c r="F59">
-        <v>0.01770911814527582</v>
+        <v>-0.06951179101302872</v>
       </c>
       <c r="G59">
-        <v>-0.006588252622520288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003135478934458633</v>
+      </c>
+      <c r="H59">
+        <v>-0.01779796588596165</v>
+      </c>
+      <c r="I59">
+        <v>-0.05540321880193336</v>
+      </c>
+      <c r="J59">
+        <v>0.02074363855496742</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1910362829121035</v>
+        <v>0.1837256219784153</v>
       </c>
       <c r="C60">
-        <v>0.09588226827697821</v>
+        <v>0.02489199175593474</v>
       </c>
       <c r="D60">
-        <v>-0.002694146891866408</v>
+        <v>-0.06977743766943019</v>
       </c>
       <c r="E60">
-        <v>0.1842456035790593</v>
+        <v>-0.01267776521351835</v>
       </c>
       <c r="F60">
-        <v>0.05957640995952507</v>
+        <v>-0.2092258912930472</v>
       </c>
       <c r="G60">
-        <v>-0.01037590308571031</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06696314721615511</v>
+      </c>
+      <c r="H60">
+        <v>-0.2771725491662249</v>
+      </c>
+      <c r="I60">
+        <v>0.09277640779579195</v>
+      </c>
+      <c r="J60">
+        <v>-0.03686112973872351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.0453306260816474</v>
+        <v>0.03826774210580289</v>
       </c>
       <c r="C61">
-        <v>-0.007216654513550361</v>
+        <v>-0.02312585019237495</v>
       </c>
       <c r="D61">
-        <v>4.568765432115564e-05</v>
+        <v>0.01058183100613933</v>
       </c>
       <c r="E61">
-        <v>0.03591900242804482</v>
+        <v>-0.005611081139776294</v>
       </c>
       <c r="F61">
-        <v>0.008150376203594193</v>
+        <v>-0.04062532510274599</v>
       </c>
       <c r="G61">
-        <v>-0.01111827714066981</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01061430059299278</v>
+      </c>
+      <c r="H61">
+        <v>-0.002748621055395188</v>
+      </c>
+      <c r="I61">
+        <v>0.03768541215577551</v>
+      </c>
+      <c r="J61">
+        <v>-0.02872497241078481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04618294220487953</v>
+        <v>0.03138338345779449</v>
       </c>
       <c r="C63">
-        <v>-0.00803057203556955</v>
+        <v>-0.0170374780971494</v>
       </c>
       <c r="D63">
-        <v>-0.02009147864976305</v>
+        <v>0.005719061749864316</v>
       </c>
       <c r="E63">
-        <v>0.03715306503442187</v>
+        <v>-0.01400689829068427</v>
       </c>
       <c r="F63">
-        <v>0.008249655458216463</v>
+        <v>-0.0295903535310035</v>
       </c>
       <c r="G63">
-        <v>-0.03347746220757455</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01133710872182369</v>
+      </c>
+      <c r="H63">
+        <v>0.04956391389516197</v>
+      </c>
+      <c r="I63">
+        <v>-0.03822926927404473</v>
+      </c>
+      <c r="J63">
+        <v>-0.02936611438236718</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.07864016816981395</v>
+        <v>0.05808355114404978</v>
       </c>
       <c r="C64">
-        <v>-0.05091988302392871</v>
+        <v>-0.03647529937201933</v>
       </c>
       <c r="D64">
-        <v>-0.06436299840583858</v>
+        <v>0.03138349721939696</v>
       </c>
       <c r="E64">
-        <v>0.05647145083544027</v>
+        <v>-0.04501691257044306</v>
       </c>
       <c r="F64">
-        <v>0.06048575320984075</v>
+        <v>-0.0489777034794384</v>
       </c>
       <c r="G64">
-        <v>0.01874546399459176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05366347632746622</v>
+      </c>
+      <c r="H64">
+        <v>-0.007387558499925157</v>
+      </c>
+      <c r="I64">
+        <v>-0.04770997633868226</v>
+      </c>
+      <c r="J64">
+        <v>-0.1001498028769452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01965581412060301</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.007359009812020562</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.01023682293599205</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.0063482497643386</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>6.518841614458824e-05</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02129939441405507</v>
+      </c>
+      <c r="H65">
+        <v>-0.004610328599998126</v>
+      </c>
+      <c r="I65">
+        <v>0.01561363440267613</v>
+      </c>
+      <c r="J65">
+        <v>-0.004954444431463751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09194598904494151</v>
+        <v>0.06924781372735243</v>
       </c>
       <c r="C66">
-        <v>-0.02842701775190842</v>
+        <v>-0.05308769796256574</v>
       </c>
       <c r="D66">
-        <v>-0.03725825270089213</v>
+        <v>0.008130065016920441</v>
       </c>
       <c r="E66">
-        <v>0.07647686581098334</v>
+        <v>-0.04654015070798403</v>
       </c>
       <c r="F66">
-        <v>0.0411574034188313</v>
+        <v>-0.06975998701840004</v>
       </c>
       <c r="G66">
-        <v>-0.01958111408229138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01516457051274745</v>
+      </c>
+      <c r="H66">
+        <v>-6.8950421034773e-05</v>
+      </c>
+      <c r="I66">
+        <v>0.0263723464053498</v>
+      </c>
+      <c r="J66">
+        <v>-0.07762720128499428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06561580220344461</v>
+        <v>0.04798214974131169</v>
       </c>
       <c r="C67">
-        <v>0.01098110699546086</v>
+        <v>0.0021949568679112</v>
       </c>
       <c r="D67">
-        <v>-0.01473319395548368</v>
+        <v>-0.003501333766653401</v>
       </c>
       <c r="E67">
-        <v>0.02181804107312733</v>
+        <v>-0.01063691045271391</v>
       </c>
       <c r="F67">
-        <v>0.003355186666910011</v>
+        <v>-0.03781721608000627</v>
       </c>
       <c r="G67">
-        <v>0.03101603105277027</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03478803934649968</v>
+      </c>
+      <c r="H67">
+        <v>-0.008199960955961632</v>
+      </c>
+      <c r="I67">
+        <v>0.03728122589427469</v>
+      </c>
+      <c r="J67">
+        <v>-0.01808305557365649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.02290344521456793</v>
+        <v>0.05007186987891862</v>
       </c>
       <c r="C68">
-        <v>0.2420961734286568</v>
+        <v>0.2061262550416989</v>
       </c>
       <c r="D68">
-        <v>0.01826788196741171</v>
+        <v>-0.1159890442312293</v>
       </c>
       <c r="E68">
-        <v>0.04564608686144493</v>
+        <v>0.02077435028471981</v>
       </c>
       <c r="F68">
-        <v>0.01265945696958133</v>
+        <v>-0.05234897506558535</v>
       </c>
       <c r="G68">
-        <v>-0.02375107455780648</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.002253988680211897</v>
+      </c>
+      <c r="H68">
+        <v>-0.01444290935066135</v>
+      </c>
+      <c r="I68">
+        <v>-0.1518800210213126</v>
+      </c>
+      <c r="J68">
+        <v>0.09021450357091124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07083240743739753</v>
+        <v>0.07241295411390741</v>
       </c>
       <c r="C69">
-        <v>-0.01616256451068782</v>
+        <v>-0.02127317842542399</v>
       </c>
       <c r="D69">
-        <v>-0.02707980632612029</v>
+        <v>0.001543585354159071</v>
       </c>
       <c r="E69">
-        <v>-0.02260525670074327</v>
+        <v>-0.03199057604361641</v>
       </c>
       <c r="F69">
-        <v>-0.002439501266573503</v>
+        <v>0.001935056255890777</v>
       </c>
       <c r="G69">
-        <v>-0.03638681642846806</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02635126148202843</v>
+      </c>
+      <c r="H69">
+        <v>0.02641188738066203</v>
+      </c>
+      <c r="I69">
+        <v>0.001654353810677816</v>
+      </c>
+      <c r="J69">
+        <v>-0.03091425046411442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01740364065252798</v>
+        <v>0.05181195988311951</v>
       </c>
       <c r="C71">
-        <v>0.276811532606287</v>
+        <v>0.220662199727847</v>
       </c>
       <c r="D71">
-        <v>0.02336813478981297</v>
+        <v>-0.1295556506456619</v>
       </c>
       <c r="E71">
-        <v>0.07983499559918267</v>
+        <v>0.04190500846396308</v>
       </c>
       <c r="F71">
-        <v>0.01959781301211101</v>
+        <v>-0.07469982085678832</v>
       </c>
       <c r="G71">
-        <v>-0.03439493700847036</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01420089388770115</v>
+      </c>
+      <c r="H71">
+        <v>-0.02296100826641176</v>
+      </c>
+      <c r="I71">
+        <v>-0.1212223656209333</v>
+      </c>
+      <c r="J71">
+        <v>0.045596240705846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1168292839777982</v>
+        <v>0.1245954993848359</v>
       </c>
       <c r="C72">
-        <v>0.004100331427857531</v>
+        <v>-0.02841742044121584</v>
       </c>
       <c r="D72">
-        <v>-0.04829627334767696</v>
+        <v>0.001451761969331684</v>
       </c>
       <c r="E72">
-        <v>0.09536971785578986</v>
+        <v>-0.06257969995890451</v>
       </c>
       <c r="F72">
-        <v>-0.009924239780333461</v>
+        <v>-0.08261217010102329</v>
       </c>
       <c r="G72">
-        <v>0.01524618268017861</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03935070402532417</v>
+      </c>
+      <c r="H72">
+        <v>-0.01763727373648687</v>
+      </c>
+      <c r="I72">
+        <v>0.08081909478666352</v>
+      </c>
+      <c r="J72">
+        <v>0.07579761609826405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2977294135239589</v>
+        <v>0.2683633615709431</v>
       </c>
       <c r="C73">
-        <v>0.1687934980317599</v>
+        <v>0.03985965403961151</v>
       </c>
       <c r="D73">
-        <v>0.05098997553449779</v>
+        <v>-0.1256342679248237</v>
       </c>
       <c r="E73">
-        <v>0.3275408463035883</v>
+        <v>0.03172364362408435</v>
       </c>
       <c r="F73">
-        <v>0.04766317708360577</v>
+        <v>-0.3112270334814318</v>
       </c>
       <c r="G73">
-        <v>0.02250571889089915</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1680251295973446</v>
+      </c>
+      <c r="H73">
+        <v>-0.4749638983482778</v>
+      </c>
+      <c r="I73">
+        <v>0.2702785241913352</v>
+      </c>
+      <c r="J73">
+        <v>-0.07431416290312873</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1629248279818578</v>
+        <v>0.1531324441199269</v>
       </c>
       <c r="C74">
-        <v>-0.001354338446927538</v>
+        <v>-0.02627650180427789</v>
       </c>
       <c r="D74">
-        <v>-0.0471990039708781</v>
+        <v>-0.006198459719073657</v>
       </c>
       <c r="E74">
-        <v>-0.02361522351146677</v>
+        <v>-0.04857453336700705</v>
       </c>
       <c r="F74">
-        <v>-0.06725214836449092</v>
+        <v>0.05706702967059334</v>
       </c>
       <c r="G74">
-        <v>-0.05702424414770806</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01844869996522566</v>
+      </c>
+      <c r="H74">
+        <v>-0.02926958805492507</v>
+      </c>
+      <c r="I74">
+        <v>-0.02823515733327105</v>
+      </c>
+      <c r="J74">
+        <v>-0.0857437499642914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2304783117121501</v>
+        <v>0.2418876934089869</v>
       </c>
       <c r="C75">
-        <v>-0.002643365673877705</v>
+        <v>-0.03000686160461376</v>
       </c>
       <c r="D75">
-        <v>-0.07314172788565651</v>
+        <v>-0.02109630931721922</v>
       </c>
       <c r="E75">
-        <v>-0.115282835091046</v>
+        <v>-0.1052095177716773</v>
       </c>
       <c r="F75">
-        <v>-0.0359500927950289</v>
+        <v>0.1443418580352134</v>
       </c>
       <c r="G75">
-        <v>-0.04104092771038836</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004455795171440853</v>
+      </c>
+      <c r="H75">
+        <v>-0.01808391509603157</v>
+      </c>
+      <c r="I75">
+        <v>-0.08893560851357858</v>
+      </c>
+      <c r="J75">
+        <v>-0.005851824598881205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2404807278781639</v>
+        <v>0.2698355123064448</v>
       </c>
       <c r="C76">
-        <v>0.009256710692623075</v>
+        <v>-0.00984755387943282</v>
       </c>
       <c r="D76">
-        <v>-0.1185395378312636</v>
+        <v>0.01133375617679119</v>
       </c>
       <c r="E76">
-        <v>-0.125210286920398</v>
+        <v>-0.1285805709760315</v>
       </c>
       <c r="F76">
-        <v>-0.08276737091611266</v>
+        <v>0.1886024338757284</v>
       </c>
       <c r="G76">
-        <v>-0.04004173012292882</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0529911978670369</v>
+      </c>
+      <c r="H76">
+        <v>-0.04059259221609032</v>
+      </c>
+      <c r="I76">
+        <v>-0.045294803106837</v>
+      </c>
+      <c r="J76">
+        <v>-0.06235654762918557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1366663048654936</v>
+        <v>0.1280932779199415</v>
       </c>
       <c r="C77">
-        <v>-0.04062440667387424</v>
+        <v>-0.06017572624986827</v>
       </c>
       <c r="D77">
-        <v>0.04322234657199232</v>
+        <v>0.01581741202188726</v>
       </c>
       <c r="E77">
-        <v>0.1457486064313716</v>
+        <v>0.03228661765579306</v>
       </c>
       <c r="F77">
-        <v>0.04275458613763954</v>
+        <v>-0.1611886900170117</v>
       </c>
       <c r="G77">
-        <v>0.06324059521345383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.005504386328501877</v>
+      </c>
+      <c r="H77">
+        <v>0.234337046702996</v>
+      </c>
+      <c r="I77">
+        <v>-0.2537788371530324</v>
+      </c>
+      <c r="J77">
+        <v>-0.06429982014589328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08399971270879732</v>
+        <v>0.0805994627338131</v>
       </c>
       <c r="C78">
-        <v>-0.04653648639559198</v>
+        <v>-0.06572303637414442</v>
       </c>
       <c r="D78">
-        <v>0.0156877305353208</v>
+        <v>0.03489455871040067</v>
       </c>
       <c r="E78">
-        <v>0.04525881652814362</v>
+        <v>-0.009254156163181478</v>
       </c>
       <c r="F78">
-        <v>0.01016778430532795</v>
+        <v>-0.07110988336479661</v>
       </c>
       <c r="G78">
-        <v>-0.01472542333633313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01116516908736082</v>
+      </c>
+      <c r="H78">
+        <v>0.02409163819739188</v>
+      </c>
+      <c r="I78">
+        <v>-0.03067364895154015</v>
+      </c>
+      <c r="J78">
+        <v>-0.04451466553299557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.0733645918130902</v>
+        <v>0.1531222503898223</v>
       </c>
       <c r="C80">
-        <v>-0.01834114737466378</v>
+        <v>0.4524596118636983</v>
       </c>
       <c r="D80">
-        <v>0.03917569577414014</v>
+        <v>0.8609209035701531</v>
       </c>
       <c r="E80">
-        <v>-0.02258565221376592</v>
+        <v>0.05468764579068816</v>
       </c>
       <c r="F80">
-        <v>-0.1447995060758406</v>
+        <v>-0.04979699763168774</v>
       </c>
       <c r="G80">
-        <v>0.9306695907371223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04534181972620641</v>
+      </c>
+      <c r="H80">
+        <v>-0.05397297056163963</v>
+      </c>
+      <c r="I80">
+        <v>0.04261301635832104</v>
+      </c>
+      <c r="J80">
+        <v>0.09509099976519725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1669302937353374</v>
+        <v>0.180280495394558</v>
       </c>
       <c r="C81">
-        <v>0.003977381519254111</v>
+        <v>-0.009400132863139692</v>
       </c>
       <c r="D81">
-        <v>-0.06951433021072656</v>
+        <v>-0.005854585799289574</v>
       </c>
       <c r="E81">
-        <v>-0.1543257081729126</v>
+        <v>-0.08693332856147341</v>
       </c>
       <c r="F81">
-        <v>-0.1078542894471359</v>
+        <v>0.1608552406692115</v>
       </c>
       <c r="G81">
-        <v>-0.03913487111572994</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03151839424733855</v>
+      </c>
+      <c r="H81">
+        <v>-0.01099696656599497</v>
+      </c>
+      <c r="I81">
+        <v>-0.05732588012453287</v>
+      </c>
+      <c r="J81">
+        <v>0.001366684090634993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09502541912514965</v>
+        <v>0.06901089177457737</v>
       </c>
       <c r="C83">
-        <v>-0.0567101437970672</v>
+        <v>-0.05179415626119895</v>
       </c>
       <c r="D83">
-        <v>0.06741040385520343</v>
+        <v>0.007489483738490637</v>
       </c>
       <c r="E83">
-        <v>0.003780768227031308</v>
+        <v>0.0364364343119009</v>
       </c>
       <c r="F83">
-        <v>0.05949235604054852</v>
+        <v>-0.04617091952656047</v>
       </c>
       <c r="G83">
-        <v>-0.0337614519882518</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05956050101875632</v>
+      </c>
+      <c r="H83">
+        <v>0.02228004223134648</v>
+      </c>
+      <c r="I83">
+        <v>-0.03195836183390422</v>
+      </c>
+      <c r="J83">
+        <v>-0.07440316389381091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2373026534698159</v>
+        <v>0.2512405387349986</v>
       </c>
       <c r="C85">
-        <v>-0.05315351531704585</v>
+        <v>-0.04960918390638666</v>
       </c>
       <c r="D85">
-        <v>-0.06591263739739571</v>
+        <v>0.01250326346834827</v>
       </c>
       <c r="E85">
-        <v>-0.1515984932918843</v>
+        <v>-0.09292580383701902</v>
       </c>
       <c r="F85">
-        <v>-0.07098251797985809</v>
+        <v>0.1859299634331999</v>
       </c>
       <c r="G85">
-        <v>-0.005783576063383617</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008255846529684856</v>
+      </c>
+      <c r="H85">
+        <v>0.02016312593327473</v>
+      </c>
+      <c r="I85">
+        <v>-0.06500982596175989</v>
+      </c>
+      <c r="J85">
+        <v>-0.06370240189887005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04222250504374549</v>
+        <v>0.02577048325909939</v>
       </c>
       <c r="C86">
-        <v>-0.04969559540262337</v>
+        <v>-0.05892912444335597</v>
       </c>
       <c r="D86">
-        <v>-0.01519087972220821</v>
+        <v>0.02876581267350859</v>
       </c>
       <c r="E86">
-        <v>0.06221198491522038</v>
+        <v>-0.01284893205154888</v>
       </c>
       <c r="F86">
-        <v>-0.003474611292568051</v>
+        <v>-0.06855421850129417</v>
       </c>
       <c r="G86">
-        <v>-0.02716875939434086</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.005326290382043442</v>
+      </c>
+      <c r="H86">
+        <v>0.06485733488301633</v>
+      </c>
+      <c r="I86">
+        <v>-0.02852047593759674</v>
+      </c>
+      <c r="J86">
+        <v>-0.03813725637678578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02572237209060954</v>
+        <v>0.03479290626250828</v>
       </c>
       <c r="C87">
-        <v>0.05143746356347899</v>
+        <v>0.01068184008245548</v>
       </c>
       <c r="D87">
-        <v>0.001579966021091305</v>
+        <v>-0.009811561104994027</v>
       </c>
       <c r="E87">
-        <v>0.09059219298473965</v>
+        <v>-0.003609695551516062</v>
       </c>
       <c r="F87">
-        <v>-0.0211803347329791</v>
+        <v>-0.09905333932046546</v>
       </c>
       <c r="G87">
-        <v>-0.02105694728300789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02472942570904837</v>
+      </c>
+      <c r="H87">
+        <v>0.01743912403896154</v>
+      </c>
+      <c r="I87">
+        <v>0.01539407202589257</v>
+      </c>
+      <c r="J87">
+        <v>-0.02169181608273748</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03912561795553819</v>
+        <v>0.02924485313400404</v>
       </c>
       <c r="C88">
-        <v>-0.03895205320390568</v>
+        <v>-0.01918563990428699</v>
       </c>
       <c r="D88">
-        <v>-0.008738258889120836</v>
+        <v>0.02155548815518397</v>
       </c>
       <c r="E88">
-        <v>-0.01131584235905908</v>
+        <v>-0.01511787514108929</v>
       </c>
       <c r="F88">
-        <v>-0.01642755290217966</v>
+        <v>0.01385338271885296</v>
       </c>
       <c r="G88">
-        <v>-0.009420268436366895</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03274747199323612</v>
+      </c>
+      <c r="H88">
+        <v>0.03730290472369222</v>
+      </c>
+      <c r="I88">
+        <v>0.02283549333236952</v>
+      </c>
+      <c r="J88">
+        <v>-0.02744702629872633</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.01580927867962949</v>
+        <v>0.0699092824395974</v>
       </c>
       <c r="C89">
-        <v>0.4127734465030445</v>
+        <v>0.3376670620346439</v>
       </c>
       <c r="D89">
-        <v>0.1063105971194505</v>
+        <v>-0.2066941292026447</v>
       </c>
       <c r="E89">
-        <v>-0.005309261209858556</v>
+        <v>0.06586824133328452</v>
       </c>
       <c r="F89">
-        <v>0.01929289692728754</v>
+        <v>-0.0325766719587602</v>
       </c>
       <c r="G89">
-        <v>-0.04337693549900523</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03791386881374498</v>
+      </c>
+      <c r="H89">
+        <v>0.05459841289127243</v>
+      </c>
+      <c r="I89">
+        <v>-0.2526879616041909</v>
+      </c>
+      <c r="J89">
+        <v>0.1037686139945539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.01946009018854183</v>
+        <v>0.04899018573140226</v>
       </c>
       <c r="C90">
-        <v>0.3048197502135069</v>
+        <v>0.2925692872995646</v>
       </c>
       <c r="D90">
-        <v>0.04670958170570209</v>
+        <v>-0.1599581150177111</v>
       </c>
       <c r="E90">
-        <v>0.04575366467250848</v>
+        <v>0.04996572787339736</v>
       </c>
       <c r="F90">
-        <v>0.02708690983305162</v>
+        <v>-0.03393957458812083</v>
       </c>
       <c r="G90">
-        <v>-0.044263331573722</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02100988236863908</v>
+      </c>
+      <c r="H90">
+        <v>0.01389601761003877</v>
+      </c>
+      <c r="I90">
+        <v>-0.2150217367709234</v>
+      </c>
+      <c r="J90">
+        <v>0.07352876269437578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2719797463405437</v>
+        <v>0.2937789354017551</v>
       </c>
       <c r="C91">
-        <v>-0.03660230964446408</v>
+        <v>-0.04455211092854997</v>
       </c>
       <c r="D91">
-        <v>-0.07817111953752059</v>
+        <v>-0.00152349999033374</v>
       </c>
       <c r="E91">
-        <v>-0.2691944973476104</v>
+        <v>-0.08714482336506248</v>
       </c>
       <c r="F91">
-        <v>-0.09877213947729591</v>
+        <v>0.2832493739811302</v>
       </c>
       <c r="G91">
-        <v>0.03354248763215719</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02225612620013914</v>
+      </c>
+      <c r="H91">
+        <v>-0.008884167077287839</v>
+      </c>
+      <c r="I91">
+        <v>-0.1069062425686104</v>
+      </c>
+      <c r="J91">
+        <v>-0.03072186171767928</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.03188892576073019</v>
+        <v>0.1079582741188585</v>
       </c>
       <c r="C92">
-        <v>0.4115061008127965</v>
+        <v>0.387073881615255</v>
       </c>
       <c r="D92">
-        <v>0.1634836962407068</v>
+        <v>-0.1853491018713009</v>
       </c>
       <c r="E92">
-        <v>-0.1349426101325282</v>
+        <v>0.08661812039497332</v>
       </c>
       <c r="F92">
-        <v>-0.08085507939181326</v>
+        <v>0.1201682131201114</v>
       </c>
       <c r="G92">
-        <v>0.1293377171847573</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.07689972134979213</v>
+      </c>
+      <c r="H92">
+        <v>0.4359044657553695</v>
+      </c>
+      <c r="I92">
+        <v>0.6372378150239787</v>
+      </c>
+      <c r="J92">
+        <v>-0.3859940371476991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.004269148280314039</v>
+        <v>0.05601600275315947</v>
       </c>
       <c r="C93">
-        <v>0.3716430230761217</v>
+        <v>0.347630020926377</v>
       </c>
       <c r="D93">
-        <v>0.07889751990511293</v>
+        <v>-0.2062378980333016</v>
       </c>
       <c r="E93">
-        <v>-0.02746373502755715</v>
+        <v>0.08207896810977473</v>
       </c>
       <c r="F93">
-        <v>-0.004503554086710972</v>
+        <v>-0.0006004280055592142</v>
       </c>
       <c r="G93">
-        <v>0.0317214171632717</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0341362259298824</v>
+      </c>
+      <c r="H93">
+        <v>-0.01741786192666915</v>
+      </c>
+      <c r="I93">
+        <v>-0.1490898456685892</v>
+      </c>
+      <c r="J93">
+        <v>0.08771784704312593</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.267870870222029</v>
+        <v>0.3023831422166318</v>
       </c>
       <c r="C94">
-        <v>0.06736454969056425</v>
+        <v>-0.003856630826964659</v>
       </c>
       <c r="D94">
-        <v>-0.0498394278370196</v>
+        <v>-0.04616859282386035</v>
       </c>
       <c r="E94">
-        <v>-0.3393823028098291</v>
+        <v>-0.1266858688053739</v>
       </c>
       <c r="F94">
-        <v>-0.4344904835107165</v>
+        <v>0.3424823208921607</v>
       </c>
       <c r="G94">
-        <v>-0.1294335740744596</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2205022101066708</v>
+      </c>
+      <c r="H94">
+        <v>0.1229578606744768</v>
+      </c>
+      <c r="I94">
+        <v>0.002727740779845821</v>
+      </c>
+      <c r="J94">
+        <v>0.1539281904785054</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1973047338401967</v>
+        <v>0.1319791368348711</v>
       </c>
       <c r="C95">
-        <v>0.02269360319494528</v>
+        <v>-0.07565076808373614</v>
       </c>
       <c r="D95">
-        <v>-0.0104206951066034</v>
+        <v>-0.07250310779263111</v>
       </c>
       <c r="E95">
-        <v>-0.4305381101708197</v>
+        <v>-0.04011502855893797</v>
       </c>
       <c r="F95">
-        <v>0.8123422438520917</v>
+        <v>0.08414763078323659</v>
       </c>
       <c r="G95">
-        <v>0.09977078518088407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.896127987723209</v>
+      </c>
+      <c r="H95">
+        <v>-0.1556002165942895</v>
+      </c>
+      <c r="I95">
+        <v>0.1340122774251886</v>
+      </c>
+      <c r="J95">
+        <v>0.2461614087297545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2240483576976867</v>
+        <v>0.2061456233710734</v>
       </c>
       <c r="C98">
-        <v>0.1181289156178169</v>
+        <v>0.03040290769974702</v>
       </c>
       <c r="D98">
-        <v>0.0444226726891195</v>
+        <v>-0.08892067196135391</v>
       </c>
       <c r="E98">
-        <v>0.0809503640584468</v>
+        <v>0.02999644072573</v>
       </c>
       <c r="F98">
-        <v>0.04732153794822149</v>
+        <v>-0.162285490692293</v>
       </c>
       <c r="G98">
-        <v>-0.05211704006745427</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.0765672769772088</v>
+      </c>
+      <c r="H98">
+        <v>-0.3232860670602223</v>
+      </c>
+      <c r="I98">
+        <v>0.1569265519682485</v>
+      </c>
+      <c r="J98">
+        <v>0.015056131452316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02218665468158131</v>
+        <v>0.01637199364327796</v>
       </c>
       <c r="C101">
-        <v>-0.02195125983902327</v>
+        <v>-0.02634135187853518</v>
       </c>
       <c r="D101">
-        <v>-0.03150264624820776</v>
+        <v>0.01843319481478227</v>
       </c>
       <c r="E101">
-        <v>0.02868232712302713</v>
+        <v>-0.03384465457162234</v>
       </c>
       <c r="F101">
-        <v>0.01578550711619845</v>
+        <v>-0.06536239741861818</v>
       </c>
       <c r="G101">
-        <v>-0.02726412150926924</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01466154715584406</v>
+      </c>
+      <c r="H101">
+        <v>0.1086290410118388</v>
+      </c>
+      <c r="I101">
+        <v>0.06546753644562936</v>
+      </c>
+      <c r="J101">
+        <v>0.09845939421232479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1196315845102522</v>
+        <v>0.1212065193488329</v>
       </c>
       <c r="C102">
-        <v>-0.01762866505888046</v>
+        <v>-0.01992734245817204</v>
       </c>
       <c r="D102">
-        <v>-0.04354816403606915</v>
+        <v>0.01087298570977021</v>
       </c>
       <c r="E102">
-        <v>-0.08638184706288826</v>
+        <v>-0.05475986095855201</v>
       </c>
       <c r="F102">
-        <v>-0.01227653565999065</v>
+        <v>0.0993720533928365</v>
       </c>
       <c r="G102">
-        <v>0.00773610782168845</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01545551060651631</v>
+      </c>
+      <c r="H102">
+        <v>-0.01974900328692235</v>
+      </c>
+      <c r="I102">
+        <v>-0.06252689818420354</v>
+      </c>
+      <c r="J102">
+        <v>-0.03455040820584267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01614912078537703</v>
+        <v>0.03148577371838109</v>
       </c>
       <c r="C103">
-        <v>0.0002602466097501781</v>
+        <v>-0.001804535870943488</v>
       </c>
       <c r="D103">
-        <v>-0.01285882879920572</v>
+        <v>0.009610812012720904</v>
       </c>
       <c r="E103">
-        <v>-0.0301392483682011</v>
+        <v>-0.02094377234703397</v>
       </c>
       <c r="F103">
-        <v>-0.01313580560492095</v>
+        <v>0.02895521013650544</v>
       </c>
       <c r="G103">
-        <v>-0.01284700542464269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0129904183659951</v>
+      </c>
+      <c r="H103">
+        <v>0.01605096396123933</v>
+      </c>
+      <c r="I103">
+        <v>-0.03083400761743349</v>
+      </c>
+      <c r="J103">
+        <v>-0.004315957864290671</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
